--- a/natmiOut/OldD7/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H2">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I2">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J2">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.35584430036223</v>
+        <v>0.2865536666666667</v>
       </c>
       <c r="N2">
-        <v>9.35584430036223</v>
+        <v>0.859661</v>
       </c>
       <c r="O2">
-        <v>0.5437172716976849</v>
+        <v>0.01543253808802733</v>
       </c>
       <c r="P2">
-        <v>0.5437172716976849</v>
+        <v>0.01543253808802733</v>
       </c>
       <c r="Q2">
-        <v>136.8495522869012</v>
+        <v>4.338513064291999</v>
       </c>
       <c r="R2">
-        <v>136.8495522869012</v>
+        <v>39.04661757862799</v>
       </c>
       <c r="S2">
-        <v>0.1797311119249776</v>
+        <v>0.004983409217923319</v>
       </c>
       <c r="T2">
-        <v>0.1797311119249776</v>
+        <v>0.004983409217923319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.6271729085533</v>
+        <v>15.140316</v>
       </c>
       <c r="H3">
-        <v>14.6271729085533</v>
+        <v>45.420948</v>
       </c>
       <c r="I3">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J3">
-        <v>0.3305598723465067</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.85134183729687</v>
+        <v>9.389971666666668</v>
       </c>
       <c r="N3">
-        <v>7.85134183729687</v>
+        <v>28.169915</v>
       </c>
       <c r="O3">
-        <v>0.4562827283023151</v>
+        <v>0.5057031622627903</v>
       </c>
       <c r="P3">
-        <v>0.4562827283023151</v>
+        <v>0.5057031622627903</v>
       </c>
       <c r="Q3">
-        <v>114.8429346182999</v>
+        <v>142.16713826438</v>
       </c>
       <c r="R3">
-        <v>114.8429346182999</v>
+        <v>1279.50424437942</v>
       </c>
       <c r="S3">
-        <v>0.1508287604215291</v>
+        <v>0.1632995030356343</v>
       </c>
       <c r="T3">
-        <v>0.1508287604215291</v>
+        <v>0.1632995030356343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.8858540144953</v>
+        <v>15.140316</v>
       </c>
       <c r="H4">
-        <v>18.8858540144953</v>
+        <v>45.420948</v>
       </c>
       <c r="I4">
-        <v>0.4268019207276728</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="J4">
-        <v>0.4268019207276728</v>
+        <v>0.3229157245229468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.35584430036223</v>
+        <v>8.891623666666666</v>
       </c>
       <c r="N4">
-        <v>9.35584430036223</v>
+        <v>26.674871</v>
       </c>
       <c r="O4">
-        <v>0.5437172716976849</v>
+        <v>0.4788642996491824</v>
       </c>
       <c r="P4">
-        <v>0.5437172716976849</v>
+        <v>0.4788642996491824</v>
       </c>
       <c r="Q4">
-        <v>176.693109638989</v>
+        <v>134.621992066412</v>
       </c>
       <c r="R4">
-        <v>176.693109638989</v>
+        <v>1211.597928597708</v>
       </c>
       <c r="S4">
-        <v>0.2320595758933818</v>
+        <v>0.1546328122693892</v>
       </c>
       <c r="T4">
-        <v>0.2320595758933818</v>
+        <v>0.1546328122693892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.8858540144953</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H5">
-        <v>18.8858540144953</v>
+        <v>56.822099</v>
       </c>
       <c r="I5">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J5">
-        <v>0.4268019207276728</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>7.85134183729687</v>
+        <v>0.2865536666666667</v>
       </c>
       <c r="N5">
-        <v>7.85134183729687</v>
+        <v>0.859661</v>
       </c>
       <c r="O5">
-        <v>0.4562827283023151</v>
+        <v>0.01543253808802733</v>
       </c>
       <c r="P5">
-        <v>0.4562827283023151</v>
+        <v>0.01543253808802733</v>
       </c>
       <c r="Q5">
-        <v>148.279295757088</v>
+        <v>5.427526938715444</v>
       </c>
       <c r="R5">
-        <v>148.279295757088</v>
+        <v>48.847742448439</v>
       </c>
       <c r="S5">
-        <v>0.1947423448342909</v>
+        <v>0.006234299027364013</v>
       </c>
       <c r="T5">
-        <v>0.1947423448342909</v>
+        <v>0.006234299027364013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.42028061199919</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H6">
-        <v>2.42028061199919</v>
+        <v>56.822099</v>
       </c>
       <c r="I6">
-        <v>0.05469598637733654</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J6">
-        <v>0.05469598637733654</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.35584430036223</v>
+        <v>9.389971666666668</v>
       </c>
       <c r="N6">
-        <v>9.35584430036223</v>
+        <v>28.169915</v>
       </c>
       <c r="O6">
-        <v>0.5437172716976849</v>
+        <v>0.5057031622627903</v>
       </c>
       <c r="P6">
-        <v>0.5437172716976849</v>
+        <v>0.5057031622627903</v>
       </c>
       <c r="Q6">
-        <v>22.64376856904983</v>
+        <v>177.8526332168428</v>
       </c>
       <c r="R6">
-        <v>22.64376856904983</v>
+        <v>1600.673698951585</v>
       </c>
       <c r="S6">
-        <v>0.02973915248589916</v>
+        <v>0.2042894509410418</v>
       </c>
       <c r="T6">
-        <v>0.02973915248589916</v>
+        <v>0.2042894509410418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.42028061199919</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H7">
-        <v>2.42028061199919</v>
+        <v>56.822099</v>
       </c>
       <c r="I7">
-        <v>0.05469598637733654</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="J7">
-        <v>0.05469598637733654</v>
+        <v>0.4039710766824948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.85134183729687</v>
+        <v>8.891623666666666</v>
       </c>
       <c r="N7">
-        <v>7.85134183729687</v>
+        <v>26.674871</v>
       </c>
       <c r="O7">
-        <v>0.4562827283023151</v>
+        <v>0.4788642996491824</v>
       </c>
       <c r="P7">
-        <v>0.4562827283023151</v>
+        <v>0.4788642996491824</v>
       </c>
       <c r="Q7">
-        <v>19.00245042698771</v>
+        <v>168.4135734193588</v>
       </c>
       <c r="R7">
-        <v>19.00245042698771</v>
+        <v>1515.722160774229</v>
       </c>
       <c r="S7">
-        <v>0.02495683389143738</v>
+        <v>0.193447326714089</v>
       </c>
       <c r="T7">
-        <v>0.02495683389143738</v>
+        <v>0.193447326714089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.316385583239979</v>
+        <v>3.221232</v>
       </c>
       <c r="H8">
-        <v>8.316385583239979</v>
+        <v>9.663696</v>
       </c>
       <c r="I8">
-        <v>0.1879422205484841</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="J8">
-        <v>0.1879422205484841</v>
+        <v>0.06870308817441464</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>9.35584430036223</v>
+        <v>0.2865536666666667</v>
       </c>
       <c r="N8">
-        <v>9.35584430036223</v>
+        <v>0.859661</v>
       </c>
       <c r="O8">
-        <v>0.5437172716976849</v>
+        <v>0.01543253808802733</v>
       </c>
       <c r="P8">
-        <v>0.5437172716976849</v>
+        <v>0.01543253808802733</v>
       </c>
       <c r="Q8">
-        <v>77.80680865857039</v>
+        <v>0.9230558407839999</v>
       </c>
       <c r="R8">
-        <v>77.80680865857039</v>
+        <v>8.307502567056</v>
       </c>
       <c r="S8">
-        <v>0.1021874313934264</v>
+        <v>0.001060263025016754</v>
       </c>
       <c r="T8">
-        <v>0.1021874313934264</v>
+        <v>0.001060263025016754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.221232</v>
+      </c>
+      <c r="H9">
+        <v>9.663696</v>
+      </c>
+      <c r="I9">
+        <v>0.06870308817441464</v>
+      </c>
+      <c r="J9">
+        <v>0.06870308817441464</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.389971666666668</v>
+      </c>
+      <c r="N9">
+        <v>28.169915</v>
+      </c>
+      <c r="O9">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="P9">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="Q9">
+        <v>30.24727721176</v>
+      </c>
+      <c r="R9">
+        <v>272.22549490584</v>
+      </c>
+      <c r="S9">
+        <v>0.0347433689470208</v>
+      </c>
+      <c r="T9">
+        <v>0.0347433689470208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.316385583239979</v>
-      </c>
-      <c r="H9">
-        <v>8.316385583239979</v>
-      </c>
-      <c r="I9">
-        <v>0.1879422205484841</v>
-      </c>
-      <c r="J9">
-        <v>0.1879422205484841</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.85134183729687</v>
-      </c>
-      <c r="N9">
-        <v>7.85134183729687</v>
-      </c>
-      <c r="O9">
-        <v>0.4562827283023151</v>
-      </c>
-      <c r="P9">
-        <v>0.4562827283023151</v>
-      </c>
-      <c r="Q9">
-        <v>65.29478606478457</v>
-      </c>
-      <c r="R9">
-        <v>65.29478606478457</v>
-      </c>
-      <c r="S9">
-        <v>0.08575478915505776</v>
-      </c>
-      <c r="T9">
-        <v>0.08575478915505776</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.221232</v>
+      </c>
+      <c r="H10">
+        <v>9.663696</v>
+      </c>
+      <c r="I10">
+        <v>0.06870308817441464</v>
+      </c>
+      <c r="J10">
+        <v>0.06870308817441464</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.891623666666666</v>
+      </c>
+      <c r="N10">
+        <v>26.674871</v>
+      </c>
+      <c r="O10">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="P10">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="Q10">
+        <v>28.641982687024</v>
+      </c>
+      <c r="R10">
+        <v>257.777844183216</v>
+      </c>
+      <c r="S10">
+        <v>0.03289945620237709</v>
+      </c>
+      <c r="T10">
+        <v>0.03289945620237709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.584029000000001</v>
+      </c>
+      <c r="H11">
+        <v>28.752087</v>
+      </c>
+      <c r="I11">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="J11">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2865536666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.859661</v>
+      </c>
+      <c r="O11">
+        <v>0.01543253808802733</v>
+      </c>
+      <c r="P11">
+        <v>0.01543253808802733</v>
+      </c>
+      <c r="Q11">
+        <v>2.746338651389667</v>
+      </c>
+      <c r="R11">
+        <v>24.717047862507</v>
+      </c>
+      <c r="S11">
+        <v>0.00315456681772325</v>
+      </c>
+      <c r="T11">
+        <v>0.00315456681772325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.584029000000001</v>
+      </c>
+      <c r="H12">
+        <v>28.752087</v>
+      </c>
+      <c r="I12">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="J12">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.389971666666668</v>
+      </c>
+      <c r="N12">
+        <v>28.169915</v>
+      </c>
+      <c r="O12">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="P12">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="Q12">
+        <v>89.99376076251168</v>
+      </c>
+      <c r="R12">
+        <v>809.9438468626051</v>
+      </c>
+      <c r="S12">
+        <v>0.1033708393390935</v>
+      </c>
+      <c r="T12">
+        <v>0.1033708393390935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.584029000000001</v>
+      </c>
+      <c r="H13">
+        <v>28.752087</v>
+      </c>
+      <c r="I13">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="J13">
+        <v>0.2044101106201438</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.891623666666666</v>
+      </c>
+      <c r="N13">
+        <v>26.674871</v>
+      </c>
+      <c r="O13">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="P13">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="Q13">
+        <v>85.21757907841967</v>
+      </c>
+      <c r="R13">
+        <v>766.9582117057771</v>
+      </c>
+      <c r="S13">
+        <v>0.09788470446332707</v>
+      </c>
+      <c r="T13">
+        <v>0.09788470446332707</v>
       </c>
     </row>
   </sheetData>
